--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>0.504767586631111</v>
+        <v>4.556682785715889</v>
       </c>
       <c r="R2">
-        <v>4.54290827968</v>
+        <v>41.010145071443</v>
       </c>
       <c r="S2">
-        <v>0.004676165702825859</v>
+        <v>0.0425039297634324</v>
       </c>
       <c r="T2">
-        <v>0.004676165702825862</v>
+        <v>0.04250392976343239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>6.319925540713332</v>
+        <v>21.78971785671234</v>
       </c>
       <c r="R3">
-        <v>56.87932986641999</v>
+        <v>196.107460710411</v>
       </c>
       <c r="S3">
-        <v>0.05854777493764569</v>
+        <v>0.2032506279019387</v>
       </c>
       <c r="T3">
-        <v>0.05854777493764571</v>
+        <v>0.2032506279019387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.08529214433777776</v>
+        <v>0.1095088021853333</v>
       </c>
       <c r="R4">
-        <v>0.7676292990399999</v>
+        <v>0.9855792196679999</v>
       </c>
       <c r="S4">
-        <v>0.0007901462190444996</v>
+        <v>0.001021478706210126</v>
       </c>
       <c r="T4">
-        <v>0.0007901462190444998</v>
+        <v>0.001021478706210126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>4.694803162808888</v>
+        <v>11.21855836179456</v>
       </c>
       <c r="R5">
-        <v>42.25322846528</v>
+        <v>100.967025256151</v>
       </c>
       <c r="S5">
-        <v>0.04349264515569866</v>
+        <v>0.104644724919505</v>
       </c>
       <c r="T5">
-        <v>0.04349264515569867</v>
+        <v>0.104644724919505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>2.111580680288888</v>
+        <v>3.949572958210889</v>
       </c>
       <c r="R6">
-        <v>19.0042261226</v>
+        <v>35.546156623898</v>
       </c>
       <c r="S6">
-        <v>0.01956167831975448</v>
+        <v>0.03684091684801656</v>
       </c>
       <c r="T6">
-        <v>0.01956167831975449</v>
+        <v>0.03684091684801655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.09161472033111109</v>
+        <v>0.03753098238066666</v>
       </c>
       <c r="R7">
-        <v>0.8245324829799998</v>
+        <v>0.337778841426</v>
       </c>
       <c r="S7">
-        <v>0.0008487185477688122</v>
+        <v>0.0003500823546596419</v>
       </c>
       <c r="T7">
-        <v>0.0008487185477688124</v>
+        <v>0.0003500823546596418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>0.8237294617777778</v>
+        <v>2.156762337930556</v>
       </c>
       <c r="R8">
-        <v>7.413565156000001</v>
+        <v>19.410861041375</v>
       </c>
       <c r="S8">
-        <v>0.007631027743442354</v>
+        <v>0.02011789699629364</v>
       </c>
       <c r="T8">
-        <v>0.007631027743442357</v>
+        <v>0.02011789699629363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>10.31347693870833</v>
+        <v>10.31347693870834</v>
       </c>
       <c r="R9">
-        <v>92.821292448375</v>
+        <v>92.82129244837502</v>
       </c>
       <c r="S9">
-        <v>0.09554402543861933</v>
+        <v>0.09620228574914257</v>
       </c>
       <c r="T9">
-        <v>0.09554402543861935</v>
+        <v>0.09620228574914254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.1391881214444445</v>
+        <v>0.05183254383333334</v>
       </c>
       <c r="R10">
-        <v>1.252693093</v>
+        <v>0.4664928945</v>
       </c>
       <c r="S10">
-        <v>0.001289438420725956</v>
+        <v>0.0004834847862261077</v>
       </c>
       <c r="T10">
-        <v>0.001289438420725956</v>
+        <v>0.0004834847862261076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>7.661442186222224</v>
+        <v>5.309951405097222</v>
       </c>
       <c r="R11">
-        <v>68.95297967600001</v>
+        <v>47.789562645875</v>
       </c>
       <c r="S11">
-        <v>0.07097558189998765</v>
+        <v>0.04953028599598542</v>
       </c>
       <c r="T11">
-        <v>0.07097558189998768</v>
+        <v>0.04953028599598541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>3.445885320972223</v>
+        <v>1.869406014805556</v>
       </c>
       <c r="R12">
-        <v>31.01296788875</v>
+        <v>16.82465413325</v>
       </c>
       <c r="S12">
-        <v>0.03192267328681964</v>
+        <v>0.01743748812221742</v>
       </c>
       <c r="T12">
-        <v>0.03192267328681964</v>
+        <v>0.01743748812221742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>0.1495059236527778</v>
+        <v>0.01776410891666667</v>
       </c>
       <c r="R13">
-        <v>1.345553312875</v>
+        <v>0.15987698025</v>
       </c>
       <c r="S13">
-        <v>0.001385022515451929</v>
+        <v>0.0001657004608858986</v>
       </c>
       <c r="T13">
-        <v>0.001385022515451929</v>
+        <v>0.0001657004608858986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>0.4805841403271111</v>
+        <v>1.581509100667444</v>
       </c>
       <c r="R14">
-        <v>4.325257262944</v>
+        <v>14.233581906007</v>
       </c>
       <c r="S14">
-        <v>0.004452130314702693</v>
+        <v>0.01475203671094199</v>
       </c>
       <c r="T14">
-        <v>0.004452130314702695</v>
+        <v>0.01475203671094199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>6.017137517062333</v>
+        <v>7.562658783137667</v>
       </c>
       <c r="R15">
-        <v>54.154237653561</v>
+        <v>68.063929048239</v>
       </c>
       <c r="S15">
-        <v>0.05574274741820243</v>
+        <v>0.07054314132880495</v>
       </c>
       <c r="T15">
-        <v>0.05574274741820245</v>
+        <v>0.07054314132880493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>0.08120579242577777</v>
+        <v>0.03800772961466666</v>
       </c>
       <c r="R16">
-        <v>0.730852131832</v>
+        <v>0.342069566532</v>
       </c>
       <c r="S16">
-        <v>0.0007522902648060278</v>
+        <v>0.0003545293683978745</v>
       </c>
       <c r="T16">
-        <v>0.000752290264806028</v>
+        <v>0.0003545293683978745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>4.469874852824889</v>
+        <v>3.893677260388777</v>
       </c>
       <c r="R17">
-        <v>40.228873675424</v>
+        <v>35.043095343499</v>
       </c>
       <c r="S17">
-        <v>0.0414089098355256</v>
+        <v>0.03631953168121132</v>
       </c>
       <c r="T17">
-        <v>0.04140890983552561</v>
+        <v>0.03631953168121132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>2.010414719258889</v>
+        <v>1.370796667422444</v>
       </c>
       <c r="R18">
-        <v>18.09373247333</v>
+        <v>12.337170006802</v>
       </c>
       <c r="S18">
-        <v>0.01862447710123087</v>
+        <v>0.0127865484634382</v>
       </c>
       <c r="T18">
-        <v>0.01862447710123087</v>
+        <v>0.01278654846343819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>0.0872254534121111</v>
+        <v>0.01302605271933333</v>
       </c>
       <c r="R19">
-        <v>0.7850290807089999</v>
+        <v>0.117234474474</v>
       </c>
       <c r="S19">
-        <v>0.0008080563896374588</v>
+        <v>0.0001215047120710044</v>
       </c>
       <c r="T19">
-        <v>0.000808056389637459</v>
+        <v>0.0001215047120710044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N20">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O20">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P20">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q20">
-        <v>1.246815867960889</v>
+        <v>0.5099040757350001</v>
       </c>
       <c r="R20">
-        <v>11.221342811648</v>
+        <v>4.589136681615</v>
       </c>
       <c r="S20">
-        <v>0.01155049918797305</v>
+        <v>0.004756294883872057</v>
       </c>
       <c r="T20">
-        <v>0.01155049918797305</v>
+        <v>0.004756294883872056</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>29.178763</v>
       </c>
       <c r="N21">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O21">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P21">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q21">
-        <v>15.61071601503467</v>
+        <v>2.438323330095</v>
       </c>
       <c r="R21">
-        <v>140.496444135312</v>
+        <v>21.944909970855</v>
       </c>
       <c r="S21">
-        <v>0.1446176354414122</v>
+        <v>0.02274424804987037</v>
       </c>
       <c r="T21">
-        <v>0.1446176354414123</v>
+        <v>0.02274424804987036</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N22">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O22">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P22">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q22">
-        <v>0.2106783434382222</v>
+        <v>0.01225430586</v>
       </c>
       <c r="R22">
-        <v>1.896105090944</v>
+        <v>0.11028875274</v>
       </c>
       <c r="S22">
-        <v>0.001951723664526723</v>
+        <v>0.0001143059940897834</v>
       </c>
       <c r="T22">
-        <v>0.001951723664526724</v>
+        <v>0.0001143059940897834</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N23">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O23">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P23">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q23">
-        <v>11.59653518842311</v>
+        <v>1.255384432395</v>
       </c>
       <c r="R23">
-        <v>104.368816695808</v>
+        <v>11.298459891555</v>
       </c>
       <c r="S23">
-        <v>0.107430273963584</v>
+        <v>0.01171000358152876</v>
       </c>
       <c r="T23">
-        <v>0.107430273963584</v>
+        <v>0.01171000358152876</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N24">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q24">
-        <v>5.215771314151111</v>
+        <v>0.44196698421</v>
       </c>
       <c r="R24">
-        <v>46.94194182736</v>
+        <v>3.97770285789</v>
       </c>
       <c r="S24">
-        <v>0.04831889285086107</v>
+        <v>0.004122589729859055</v>
       </c>
       <c r="T24">
-        <v>0.04831889285086108</v>
+        <v>0.004122589729859055</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N25">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O25">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P25">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q25">
-        <v>0.2262956062808889</v>
+        <v>0.00419980977</v>
       </c>
       <c r="R25">
-        <v>2.036660456528</v>
+        <v>0.03779828793</v>
       </c>
       <c r="S25">
-        <v>0.002096401949763498</v>
+        <v>3.917508149644262E-05</v>
       </c>
       <c r="T25">
-        <v>0.002096401949763499</v>
+        <v>3.917508149644262E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N26">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O26">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P26">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q26">
-        <v>0.4565257634026667</v>
+        <v>0.8032583310456666</v>
       </c>
       <c r="R26">
-        <v>4.108731870624001</v>
+        <v>7.229324979410999</v>
       </c>
       <c r="S26">
-        <v>0.00422925356900951</v>
+        <v>0.007492651406782761</v>
       </c>
       <c r="T26">
-        <v>0.004229253569009512</v>
+        <v>0.007492651406782759</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>29.178763</v>
       </c>
       <c r="N27">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O27">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P27">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q27">
-        <v>5.715915420359</v>
+        <v>3.841121540083</v>
       </c>
       <c r="R27">
-        <v>51.443238783231</v>
+        <v>34.570093860747</v>
       </c>
       <c r="S27">
-        <v>0.05295222664221843</v>
+        <v>0.03582930123296817</v>
       </c>
       <c r="T27">
-        <v>0.05295222664221845</v>
+        <v>0.03582930123296816</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N28">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O28">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P28">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q28">
-        <v>0.07714057387466668</v>
+        <v>0.019304362804</v>
       </c>
       <c r="R28">
-        <v>0.6942651648720001</v>
+        <v>0.173739265236</v>
       </c>
       <c r="S28">
-        <v>0.0007146300899717636</v>
+        <v>0.0001800676762756318</v>
       </c>
       <c r="T28">
-        <v>0.0007146300899717639</v>
+        <v>0.0001800676762756318</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N29">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O29">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P29">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q29">
-        <v>4.246109803189333</v>
+        <v>1.977622952969666</v>
       </c>
       <c r="R29">
-        <v>38.21498822870401</v>
+        <v>17.798606576727</v>
       </c>
       <c r="S29">
-        <v>0.03933595095640961</v>
+        <v>0.01844691654970415</v>
       </c>
       <c r="T29">
-        <v>0.03933595095640963</v>
+        <v>0.01844691654970415</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N30">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q30">
-        <v>1.909771957603333</v>
+        <v>0.6962361726606666</v>
       </c>
       <c r="R30">
-        <v>17.18794761843</v>
+        <v>6.266125553946</v>
       </c>
       <c r="S30">
-        <v>0.01769212280044784</v>
+        <v>0.006494367673408436</v>
       </c>
       <c r="T30">
-        <v>0.01769212280044784</v>
+        <v>0.006494367673408434</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N31">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O31">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P31">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q31">
-        <v>0.08285888643766666</v>
+        <v>0.006616013377999999</v>
       </c>
       <c r="R31">
-        <v>0.745729977939</v>
+        <v>0.05954412040199999</v>
       </c>
       <c r="S31">
-        <v>0.0007676045237376157</v>
+        <v>6.171300069733983E-05</v>
       </c>
       <c r="T31">
-        <v>0.000767604523737616</v>
+        <v>6.171300069733983E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N32">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O32">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P32">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q32">
-        <v>0.4336287450026667</v>
+        <v>2.117423481037556</v>
       </c>
       <c r="R32">
-        <v>3.902658705024</v>
+        <v>19.056811329338</v>
       </c>
       <c r="S32">
-        <v>0.004017135645880463</v>
+        <v>0.01975095110846592</v>
       </c>
       <c r="T32">
-        <v>0.004017135645880464</v>
+        <v>0.01975095110846591</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>29.178763</v>
       </c>
       <c r="N33">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O33">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P33">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q33">
-        <v>5.429234073884</v>
+        <v>10.12536145364733</v>
       </c>
       <c r="R33">
-        <v>48.863106664956</v>
+        <v>91.12825308282601</v>
       </c>
       <c r="S33">
-        <v>0.05029641134121331</v>
+        <v>0.09444757783102475</v>
       </c>
       <c r="T33">
-        <v>0.05029641134121332</v>
+        <v>0.09444757783102474</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N34">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O34">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P34">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q34">
-        <v>0.07327159367466667</v>
+        <v>0.05088712996533333</v>
       </c>
       <c r="R34">
-        <v>0.6594443430720001</v>
+        <v>0.457984169688</v>
       </c>
       <c r="S34">
-        <v>0.0006787878667480008</v>
+        <v>0.0004746661331548836</v>
       </c>
       <c r="T34">
-        <v>0.000678787866748001</v>
+        <v>0.0004746661331548836</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N35">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O35">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P35">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q35">
-        <v>4.033146456789334</v>
+        <v>5.213099093296222</v>
       </c>
       <c r="R35">
-        <v>36.298318111104</v>
+        <v>46.917891839666</v>
       </c>
       <c r="S35">
-        <v>0.03736305902996648</v>
+        <v>0.04862686478985706</v>
       </c>
       <c r="T35">
-        <v>0.03736305902996649</v>
+        <v>0.04862686478985706</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N36">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O36">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P36">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q36">
-        <v>1.813987475853333</v>
+        <v>1.835308472207556</v>
       </c>
       <c r="R36">
-        <v>16.32588728268</v>
+        <v>16.517776249868</v>
       </c>
       <c r="S36">
-        <v>0.01680477559297029</v>
+        <v>0.01711943228558245</v>
       </c>
       <c r="T36">
-        <v>0.01680477559297029</v>
+        <v>0.01711943228558245</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2731,28 +2731,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N37">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O37">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P37">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q37">
-        <v>0.07870310466266667</v>
+        <v>0.01744009559066667</v>
       </c>
       <c r="R37">
-        <v>0.708327941964</v>
+        <v>0.156960860316</v>
       </c>
       <c r="S37">
-        <v>0.0007291053714160826</v>
+        <v>0.0001626781219831574</v>
       </c>
       <c r="T37">
-        <v>0.0007291053714160829</v>
+        <v>0.0001626781219831574</v>
       </c>
     </row>
   </sheetData>
